--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value808.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value808.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.550122504249158</v>
+        <v>1.098450064659119</v>
       </c>
       <c r="B1">
-        <v>2.804091139917568</v>
+        <v>1.582001209259033</v>
       </c>
       <c r="C1">
-        <v>2.144459351731513</v>
+        <v>4.614859580993652</v>
       </c>
       <c r="D1">
-        <v>2.022275397566683</v>
+        <v>0.4627927243709564</v>
       </c>
       <c r="E1">
-        <v>1.82886674785245</v>
+        <v>0.5145339369773865</v>
       </c>
     </row>
   </sheetData>
